--- a/cinema-database.xlsx
+++ b/cinema-database.xlsx
@@ -23,9 +23,71 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Forest Gump</t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>God Father</t>
+  </si>
+  <si>
+    <t>Yönetmenler</t>
+  </si>
+  <si>
+    <t>Film Adı</t>
+  </si>
+  <si>
+    <t>Francis Ford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soyadı</t>
+  </si>
+  <si>
+    <t>Adı</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zemeckis</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reeves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jon </t>
+  </si>
+  <si>
+    <t>Watts</t>
+  </si>
+  <si>
+    <t>Coppola</t>
+  </si>
+  <si>
+    <t>Oyuncular</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +95,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -50,14 +137,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Giriş" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -336,14 +455,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cinema-database.xlsx
+++ b/cinema-database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -81,6 +81,111 @@
   </si>
   <si>
     <t>Oyuncular</t>
+  </si>
+  <si>
+    <t>Açıklama</t>
+  </si>
+  <si>
+    <t>Süre</t>
+  </si>
+  <si>
+    <t>Yayın</t>
+  </si>
+  <si>
+    <t>Banner Image</t>
+  </si>
+  <si>
+    <t>Tanıtım</t>
+  </si>
+  <si>
+    <t>açıklama1</t>
+  </si>
+  <si>
+    <t>açıklama2</t>
+  </si>
+  <si>
+    <t>açıklama3</t>
+  </si>
+  <si>
+    <t>açıklama4</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+  </si>
+  <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>1.mp4</t>
+  </si>
+  <si>
+    <t>2.mp4</t>
+  </si>
+  <si>
+    <t>3.mp4</t>
+  </si>
+  <si>
+    <t>4.mp4</t>
+  </si>
+  <si>
+    <t>Doğum T.</t>
+  </si>
+  <si>
+    <t>Cinsiyet</t>
+  </si>
+  <si>
+    <t>Erkek</t>
+  </si>
+  <si>
+    <t>Kadın</t>
+  </si>
+  <si>
+    <t>Ülke</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>Amerika</t>
+  </si>
+  <si>
+    <t>Almanya</t>
+  </si>
+  <si>
+    <t>Rusya</t>
+  </si>
+  <si>
+    <t>Cem</t>
+  </si>
+  <si>
+    <t>Efe</t>
+  </si>
+  <si>
+    <t>Kaan</t>
+  </si>
+  <si>
+    <t>Toprak</t>
+  </si>
+  <si>
+    <t>Kategori</t>
+  </si>
+  <si>
+    <t>Korku</t>
+  </si>
+  <si>
+    <t>Romantik</t>
+  </si>
+  <si>
+    <t>Sevgi</t>
+  </si>
+  <si>
+    <t>Hüzün</t>
   </si>
 </sst>
 </file>
@@ -455,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,9 +572,10 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -479,8 +585,23 @@
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2">
         <v>1</v>
@@ -488,8 +609,23 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>120</v>
+      </c>
+      <c r="F2">
+        <v>2024</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3">
         <v>2</v>
@@ -497,8 +633,23 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>111</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4">
         <v>3</v>
@@ -506,8 +657,23 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>214</v>
+      </c>
+      <c r="F4">
+        <v>1998</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5">
         <v>4</v>
@@ -515,8 +681,23 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>119</v>
+      </c>
+      <c r="F5">
+        <v>2004</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -529,8 +710,17 @@
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>1</v>
@@ -541,8 +731,17 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1980</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9">
         <v>2</v>
@@ -553,8 +752,17 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10">
         <v>3</v>
@@ -565,8 +773,17 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1975</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11">
         <v>4</v>
@@ -577,8 +794,17 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1961</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -591,53 +817,160 @@
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1980</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>2000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1975</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
+      </c>
+      <c r="E17">
+        <v>1961</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/cinema-database.xlsx
+++ b/cinema-database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
@@ -186,6 +186,24 @@
   </si>
   <si>
     <t>Hüzün</t>
+  </si>
+  <si>
+    <t>Film-Kategori</t>
+  </si>
+  <si>
+    <t>Film Id</t>
+  </si>
+  <si>
+    <t>Kategori Id</t>
+  </si>
+  <si>
+    <t>Yönetmen Id</t>
+  </si>
+  <si>
+    <t>Film-Oyuncu</t>
+  </si>
+  <si>
+    <t>Oyuncu Id</t>
   </si>
 </sst>
 </file>
@@ -560,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,10 +590,17 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -600,8 +625,20 @@
       <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2">
         <v>1</v>
@@ -624,8 +661,18 @@
       <c r="H2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3">
         <v>2</v>
@@ -648,8 +695,18 @@
       <c r="H3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4">
         <v>3</v>
@@ -672,8 +729,18 @@
       <c r="H4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5">
         <v>4</v>
@@ -696,8 +763,18 @@
       <c r="H5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -720,7 +797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>1</v>
@@ -741,7 +818,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9">
         <v>2</v>
@@ -762,7 +839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10">
         <v>3</v>
@@ -783,7 +860,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11">
         <v>4</v>
@@ -804,7 +881,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -827,7 +904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14">
         <v>1</v>
@@ -848,7 +925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15">
         <v>2</v>
@@ -869,7 +946,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16">
         <v>3</v>
@@ -890,7 +967,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17">
         <v>4</v>
@@ -911,7 +988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -924,8 +1001,17 @@
       <c r="D19" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20">
         <v>1</v>
@@ -936,8 +1022,15 @@
       <c r="D20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="3"/>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21">
         <v>2</v>
@@ -948,8 +1041,15 @@
       <c r="D21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="3"/>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22">
         <v>3</v>
@@ -960,8 +1060,15 @@
       <c r="D22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="3"/>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23">
         <v>4</v>
@@ -971,6 +1078,13 @@
       </c>
       <c r="D23" t="s">
         <v>27</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
